--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -51,9 +51,6 @@
     <t>!</t>
   </si>
   <si>
-    <t>Simple Level Structure of the second Level</t>
-  </si>
-  <si>
     <t>Design new Enemies</t>
   </si>
   <si>
@@ -63,43 +60,58 @@
     <t>Epic</t>
   </si>
   <si>
-    <t>Throw Script</t>
-  </si>
-  <si>
     <t>Vertics</t>
   </si>
   <si>
-    <t>Start trigger, Dialoge, Walk Back scene</t>
-  </si>
-  <si>
-    <t>Basic level plan to unity with colliders and sprites</t>
-  </si>
-  <si>
     <t>Design Dialoges</t>
   </si>
   <si>
-    <t>Write a basic script for the dialoge the people say.</t>
-  </si>
-  <si>
     <t>Implement Questlog</t>
   </si>
   <si>
-    <t>GUI to manage all the Quests the player gets, Display Box for "You got a new Quest"</t>
-  </si>
-  <si>
     <t>Implement Wodden Cabin</t>
   </si>
   <si>
-    <t>Add Sprite to Level, Add Colliders, add door, add intro squence</t>
-  </si>
-  <si>
-    <t>Select frame, trophys for levels, animations for characters and "living" objects, entry dialoge</t>
-  </si>
-  <si>
-    <t>Landscape on paper, mark position of enemies secrets treasures and entrances, check if choises are possible in unity</t>
-  </si>
-  <si>
-    <t>Movement, spawn location, atack movement, stats, special actions (e.g. poision), Design Basic Sprite</t>
+    <t>Simple Level Structure of the first Level</t>
+  </si>
+  <si>
+    <t>As a player I want to have a widget to access all my quests in order to have a good overview of all my open quests. Furthermore I want to get informed if a new quest comes up (Display Box for "You got a new Quest")</t>
+  </si>
+  <si>
+    <t>As a player I want to fight against the first boss, to further progress in the story. Furthermore I want to gain experience points and loot.</t>
+  </si>
+  <si>
+    <t>As a player I want to finish the first level.  To do so I want to have a cut scene after the bossfight so I can make a progress in the storyline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to move around in the cabin of the Adventurer. Furthermore I want to select different levels when I sit down in the rocking chair. </t>
+  </si>
+  <si>
+    <t>As a player I want  to select the different levels. Furthermore have a nice graphic design to get along with it.</t>
+  </si>
+  <si>
+    <t>As a player I want to move around in the second level. To progress in the story.</t>
+  </si>
+  <si>
+    <t>As a player I want to have a good structured level, where I can move around freely and fight enemies.</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against 100  enemies. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to have interesting and hilarious dialoges between the characters.  </t>
+  </si>
+  <si>
+    <t>Old Lady Quest</t>
+  </si>
+  <si>
+    <t>As a player I want to get  the quest to help the old lady bring her "groceries" to her hut.</t>
+  </si>
+  <si>
+    <t>Hut of the old Lady</t>
+  </si>
+  <si>
+    <t>As a player I want to see the hut of the old Lady. Furthermore I want to move around in it.</t>
   </si>
 </sst>
 </file>
@@ -135,13 +147,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,7 +184,7 @@
     <tableColumn id="5" name="Epic"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Priority"/>
-    <tableColumn id="6" name="Vertics"/>
+    <tableColumn id="6" name="Vertics" dataDxfId="0"/>
     <tableColumn id="4" name="SP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -437,15 +456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -453,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -461,14 +480,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,14 +500,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,14 +520,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -516,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -541,8 +560,8 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -556,19 +575,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -576,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -596,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -616,19 +635,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -636,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -655,10 +674,37 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,37 +574,10 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -635,19 +608,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -655,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -675,19 +648,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -695,31 +668,64 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>As a player I want to see the hut of the old Lady. Furthermore I want to move around in it.</t>
+  </si>
+  <si>
+    <t>Implement Tutorial Elements</t>
+  </si>
+  <si>
+    <t>As a player I want to understand how to play the game. Furthermore I want to leran all about the mechanics of the game and how to use them.</t>
+  </si>
+  <si>
+    <t>Iphrit Sprite</t>
+  </si>
+  <si>
+    <t>As a player I want to see a nice looking Sprite of the second boss.</t>
+  </si>
+  <si>
+    <t>Start Sequence for first level</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sequence why the player gets out of his hut, to investigate whats going on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villagers running </t>
+  </si>
+  <si>
+    <t>As a player I want to see the villagers running by the hut of the Adventurer. Furthermore I want to hear an explanation why they are running away.</t>
   </si>
 </sst>
 </file>
@@ -457,7 +481,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,12 +591,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -600,101 +633,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -702,108 +711,165 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Description</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Implement Wodden Cabin</t>
   </si>
   <si>
-    <t>Simple Level Structure of the first Level</t>
-  </si>
-  <si>
     <t>As a player I want to have a widget to access all my quests in order to have a good overview of all my open quests. Furthermore I want to get informed if a new quest comes up (Display Box for "You got a new Quest")</t>
   </si>
   <si>
@@ -90,18 +87,12 @@
     <t>As a player I want  to select the different levels. Furthermore have a nice graphic design to get along with it.</t>
   </si>
   <si>
-    <t>As a player I want to move around in the second level. To progress in the story.</t>
-  </si>
-  <si>
     <t>As a player I want to have a good structured level, where I can move around freely and fight enemies.</t>
   </si>
   <si>
     <t>As a Player I want to fight against 100  enemies. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a player I want to have interesting and hilarious dialoges between the characters.  </t>
-  </si>
-  <si>
     <t>Old Lady Quest</t>
   </si>
   <si>
@@ -114,28 +105,211 @@
     <t>As a player I want to see the hut of the old Lady. Furthermore I want to move around in it.</t>
   </si>
   <si>
-    <t>Implement Tutorial Elements</t>
-  </si>
-  <si>
-    <t>As a player I want to understand how to play the game. Furthermore I want to leran all about the mechanics of the game and how to use them.</t>
-  </si>
-  <si>
-    <t>Iphrit Sprite</t>
-  </si>
-  <si>
-    <t>As a player I want to see a nice looking Sprite of the second boss.</t>
-  </si>
-  <si>
     <t>Start Sequence for first level</t>
   </si>
   <si>
-    <t>As a player I want to see a sequence why the player gets out of his hut, to investigate whats going on.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Villagers running </t>
   </si>
   <si>
     <t>As a player I want to see the villagers running by the hut of the Adventurer. Furthermore I want to hear an explanation why they are running away.</t>
+  </si>
+  <si>
+    <t>Iphrit</t>
+  </si>
+  <si>
+    <t>As a player I want to move around in the first level. To progress in the story. I as well want to move arround in a nice looking city. Furthermore there must be some enemies which I can fight against.</t>
+  </si>
+  <si>
+    <t>Witch Sequence</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost agianst Iphrit</t>
+  </si>
+  <si>
+    <t>Simple Level Structure of the first Level (City)</t>
+  </si>
+  <si>
+    <t>Create second part of first level (Past)</t>
+  </si>
+  <si>
+    <t>As a player I want to move arround in the forest which leads to the town.</t>
+  </si>
+  <si>
+    <t>Create Old Lady sequence</t>
+  </si>
+  <si>
+    <t>As a player I want to see why I go to the hut of the old lady.</t>
+  </si>
+  <si>
+    <t>As a player I want to have a dialoges between the adventurer and the old lady.</t>
+  </si>
+  <si>
+    <t>Sprite for the inside of the hut for the old lady + implementation</t>
+  </si>
+  <si>
+    <t>As a player I want to see a nice looking sprite of the inside of the old lady's hut</t>
+  </si>
+  <si>
+    <t>Sequence for the inside of the hut of the old lady</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sequence why the old lady is a witch and how she gets turned into a pig</t>
+  </si>
+  <si>
+    <t>Riding pig to town</t>
+  </si>
+  <si>
+    <t>As a player I want to ride to the town on the pig.</t>
+  </si>
+  <si>
+    <t>City Gate</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sprite for the city gate.Furthermore I want to see two guards (chubby and thin). I also want to hear why they don't let me in town and how I can get into town.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design way to the nest </t>
+  </si>
+  <si>
+    <t>As a player I want to have a short way I can walk to get to the nest of the beast.</t>
+  </si>
+  <si>
+    <t>Design and implement the first-mini boss</t>
+  </si>
+  <si>
+    <t>As a player I want to fight against the first mini-boss. After I have defeated him, I want to get an artifact</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>As a player I want to have realistic physics. Furthermore I want to move arround without getting caught somewhere</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>As a player I want to have a working Main Menu, which starts the Game, Gives me the Option to load my saved Game and choose between some simple options.</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Movement of Player</t>
+  </si>
+  <si>
+    <t>Background for first Level</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Slime Enemy</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>Excalibur Cave</t>
+  </si>
+  <si>
+    <t>Excalibur Cut Scene</t>
+  </si>
+  <si>
+    <t>Esc Menu</t>
+  </si>
+  <si>
+    <t>Intro Sequence for Game</t>
+  </si>
+  <si>
+    <t>Sprites for the first Level +  Layout of the first level</t>
+  </si>
+  <si>
+    <t>As a player I want to see the forest in the background of the first level.</t>
+  </si>
+  <si>
+    <t>Game UI</t>
+  </si>
+  <si>
+    <t>Fighting + UI</t>
+  </si>
+  <si>
+    <t>As a player I want to see an UI which displays my current health. Furthermore, I want to see Icons that show which buttons I have to press in order to do specific actions.</t>
+  </si>
+  <si>
+    <t>As a player I want to see a cutscene when the game starts. It gives me an introduction to the game.</t>
+  </si>
+  <si>
+    <t>As a player I want to see a menu when I press Esc which gives me some simple options. Furthermore I want it to disappear when I press Esc again.</t>
+  </si>
+  <si>
+    <t>As a player I want to see a cutscene how I get the axe from Excalibur and why he doesn't want me to receive it.</t>
+  </si>
+  <si>
+    <t>As a palyer I want to see an enviroment for the cave. Furthermore, I want to move around in it.</t>
+  </si>
+  <si>
+    <t>As a player I want to have a sprite and a sound for a chest. Furthermore I want to get an item out of it when I am opening it.</t>
+  </si>
+  <si>
+    <t>As a player I want to see an indicator on how much health an enemy has. Furthermore I want it to be animated.</t>
+  </si>
+  <si>
+    <t>As a player I want to fight against a slime. This slime has to have a sprite and movement when he des not attack. Furthermore I want the slime to attack me when I come near it</t>
+  </si>
+  <si>
+    <t>As a player I want to see a UI for the inventory. Furthermore I want to drag around items, use them and see informations about them when I hover over them.</t>
+  </si>
+  <si>
+    <t>As a player I want to see the ground sprites for the first level. Furthermore I want an enviroment in which I can move around.</t>
+  </si>
+  <si>
+    <t>As a player I want to move the Adventurer around. Furthermore I want the Adventurer to be able to (double) jump. I also want the Adventurer to rotate according to my mouse movement.</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sprite for the Adventurer. Furthermore I want it to be fluently animated.</t>
+  </si>
+  <si>
+    <t>As a player I want to see the game  and have accurate camera movement which for example followes me.</t>
+  </si>
+  <si>
+    <t>As a player I want to see a sequence why the player gets out of his hut to investigate whats going on. And I also want to see a sequence how the player gets to the town.</t>
+  </si>
+  <si>
+    <t>Event List</t>
+  </si>
+  <si>
+    <t>As a player I want a List, where events are listed, so they don't accour again.</t>
+  </si>
+  <si>
+    <t>Sprite for Player</t>
+  </si>
+  <si>
+    <t>As a player I want to see a nice looking sprite of the second boss. I also want to see him moving and fight against him.</t>
+  </si>
+  <si>
+    <t>Firewood Drop fom Witchboss</t>
+  </si>
+  <si>
+    <t>As a player I want to get "Firewood" when I defeat the Witchtree</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>As a player I want to see who made the game and their Functions</t>
+  </si>
+  <si>
+    <t>Background for Main Menu</t>
+  </si>
+  <si>
+    <t>As a Player I want to have a nice looking Background while I am in the Main Menu</t>
   </si>
 </sst>
 </file>
@@ -198,18 +372,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:G72" totalsRowShown="0">
+  <autoFilter ref="A1:G72"/>
   <sortState ref="A2:E31">
     <sortCondition descending="1" ref="D1:D31"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="5" name="Epic"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Priority"/>
     <tableColumn id="6" name="Vertics" dataDxfId="0"/>
     <tableColumn id="4" name="SP"/>
+    <tableColumn id="7" name="Finished"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -478,20 +653,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +685,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,13 +703,20 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:F72)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,13 +730,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,13 +753,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -585,35 +776,41 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -621,77 +818,101 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -703,175 +924,842 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
@@ -90,9 +90,6 @@
     <t>As a player I want to have a good structured level, where I can move around freely and fight enemies.</t>
   </si>
   <si>
-    <t>As a Player I want to fight against 100  enemies. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
-  </si>
-  <si>
     <t>Old Lady Quest</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>As a player I want to see the hut of the old Lady. Furthermore I want to move around in it.</t>
   </si>
   <si>
-    <t>Start Sequence for first level</t>
-  </si>
-  <si>
     <t xml:space="preserve">Villagers running </t>
   </si>
   <si>
@@ -117,18 +111,12 @@
     <t>Iphrit</t>
   </si>
   <si>
-    <t>As a player I want to move around in the first level. To progress in the story. I as well want to move arround in a nice looking city. Furthermore there must be some enemies which I can fight against.</t>
-  </si>
-  <si>
     <t>Witch Sequence</t>
   </si>
   <si>
     <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost agianst Iphrit</t>
   </si>
   <si>
-    <t>Simple Level Structure of the first Level (City)</t>
-  </si>
-  <si>
     <t>Create second part of first level (Past)</t>
   </si>
   <si>
@@ -310,6 +298,33 @@
   </si>
   <si>
     <t>As a Player I want to have a nice looking Background while I am in the Main Menu</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Background/Sprites for first part of Level 1</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to see the ground of the first part of level 1 to walk on. Also, I want to see the background and the objects.</t>
+  </si>
+  <si>
+    <t>Write an XMLReader for the ingame dialogues</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to read the dialogues of the game. This should be accomplished with a simple XMLReader.</t>
+  </si>
+  <si>
+    <t>Simple Level Structure of the second Level (City)</t>
+  </si>
+  <si>
+    <t>As a player I want to move around in the second level. To progress in the story. I as well want to move arround in a nice looking city. Furthermore there must be some enemies which I can fight against.</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against 100 different enemy types. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
+  </si>
+  <si>
+    <t>Start Sequence for second level</t>
   </si>
 </sst>
 </file>
@@ -345,10 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +704,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -709,11 +727,11 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <f>SUM(F2:F72)</f>
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -736,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -759,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,13 +816,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -818,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -838,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -878,16 +896,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -898,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -924,10 +945,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -938,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -964,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,10 +996,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -998,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1012,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1032,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1049,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1069,13 +1090,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1089,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1109,13 +1130,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1129,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1149,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1169,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1192,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -1212,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1235,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1258,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1281,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1327,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1350,16 +1371,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1393,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1462,16 +1486,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1505,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,43 +1624,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1641,7 +1698,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1706,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Start Sequence for second level</t>
+  </si>
+  <si>
+    <t>Extended Tutorial Bossfight</t>
+  </si>
+  <si>
+    <t>As a player I want the first boss I fight against to be able to use multiple different attacks instead of just one.</t>
   </si>
 </sst>
 </file>
@@ -673,18 +679,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,10 +737,10 @@
       </c>
       <c r="H2">
         <f>SUM(F2:F72)</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -757,7 +763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,7 +786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -803,12 +809,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -828,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -848,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -868,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -888,7 +894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -911,7 +917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -931,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -951,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -968,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -988,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1693,15 +1699,30 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1709,112 +1730,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -51,9 +51,6 @@
     <t>!</t>
   </si>
   <si>
-    <t>Design new Enemies</t>
-  </si>
-  <si>
     <t>Convert Level form Paper to Unity</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>As a player I want to move around in the second level. To progress in the story. I as well want to move arround in a nice looking city. Furthermore there must be some enemies which I can fight against.</t>
   </si>
   <si>
-    <t>As a Player I want to fight against 100 different enemy types. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
-  </si>
-  <si>
     <t>Start Sequence for second level</t>
   </si>
   <si>
@@ -331,6 +325,12 @@
   </si>
   <si>
     <t>As a player I want the first boss I fight against to be able to use multiple different attacks instead of just one.</t>
+  </si>
+  <si>
+    <t>Design new Enemies for second level</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
   </si>
 </sst>
 </file>
@@ -679,41 +679,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -727,20 +727,20 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <f>SUM(F2:F72)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -800,21 +800,21 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -822,19 +822,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -842,19 +842,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -862,19 +862,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -882,19 +882,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -902,22 +905,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -925,19 +928,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -945,19 +948,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -965,16 +968,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -982,19 +988,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1002,16 +1011,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1019,19 +1031,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1039,19 +1051,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1059,16 +1074,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1076,19 +1094,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1096,19 +1117,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1116,19 +1140,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1136,19 +1163,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1156,19 +1186,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1176,19 +1209,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1196,22 +1232,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1219,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1239,22 +1275,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1262,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1285,22 +1321,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1308,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1331,22 +1367,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1354,22 +1390,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1377,22 +1413,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1400,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1423,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1446,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1469,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1492,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1515,22 +1551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1538,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1561,22 +1597,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1584,22 +1620,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1607,22 +1643,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1630,30 +1666,30 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1661,22 +1697,22 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1684,22 +1720,22 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1707,22 +1743,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1730,112 +1766,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -51,9 +51,6 @@
     <t>!</t>
   </si>
   <si>
-    <t>Design new Enemies</t>
-  </si>
-  <si>
     <t>Convert Level form Paper to Unity</t>
   </si>
   <si>
@@ -321,10 +318,19 @@
     <t>As a player I want to move around in the second level. To progress in the story. I as well want to move arround in a nice looking city. Furthermore there must be some enemies which I can fight against.</t>
   </si>
   <si>
-    <t>As a Player I want to fight against 100 different enemy types. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
-  </si>
-  <si>
     <t>Start Sequence for second level</t>
+  </si>
+  <si>
+    <t>Extended Tutorial Bossfight</t>
+  </si>
+  <si>
+    <t>As a player I want the first boss I fight against to be able to use multiple different attacks instead of just one.</t>
+  </si>
+  <si>
+    <t>Design new Enemies for second level</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
   </si>
 </sst>
 </file>
@@ -673,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,22 +695,22 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -721,17 +727,17 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <f>SUM(F2:F72)</f>
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -748,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -765,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -794,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -816,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -836,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -856,13 +862,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -876,16 +882,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -896,19 +905,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -919,13 +928,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -939,16 +948,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,13 +968,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F14">
         <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,16 +988,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,16 +1011,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1013,19 +1031,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1033,19 +1051,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1053,16 +1074,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1070,19 +1094,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1090,19 +1117,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1110,19 +1140,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1130,19 +1163,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1150,19 +1186,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1170,19 +1209,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1190,22 +1232,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26">
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1213,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1233,22 +1275,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1256,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1279,22 +1321,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1302,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1325,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1348,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1371,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1417,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1486,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,19 +1551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1532,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,7 +1686,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1655,19 +1697,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1678,30 +1720,45 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1709,72 +1766,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +111,6 @@
     <t>Witch Sequence</t>
   </si>
   <si>
-    <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost agianst Iphrit</t>
-  </si>
-  <si>
     <t>Create second part of first level (Past)</t>
   </si>
   <si>
@@ -330,7 +327,10 @@
     <t>Design new Enemies for second level</t>
   </si>
   <si>
-    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
+    <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost against Iphrit</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous levels.</t>
   </si>
 </sst>
 </file>
@@ -346,12 +346,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,11 +386,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -406,9 +439,9 @@
     <tableColumn id="5" name="Epic"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Priority"/>
-    <tableColumn id="6" name="Vertics" dataDxfId="0"/>
+    <tableColumn id="6" name="Vertics" dataDxfId="1"/>
     <tableColumn id="4" name="SP"/>
-    <tableColumn id="7" name="Finished"/>
+    <tableColumn id="7" name="Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +721,7 @@
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,104 +743,104 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
+      <c r="G1" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5">
         <f>SUM(F2:F72)</f>
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>48</v>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>48</v>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>48</v>
+      <c r="G5" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -842,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -875,49 +909,49 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>92</v>
+      <c r="G10" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -934,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -948,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -961,69 +995,71 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1037,217 +1073,218 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G18" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19">
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G21" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G25" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22">
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6">
         <v>5</v>
       </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1255,430 +1292,430 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28">
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="6">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G32" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="6">
+        <v>8</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="6">
+        <v>8</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29">
+      <c r="E37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G38" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30">
+      <c r="E40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="6">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,76 +1723,76 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="6">
+        <v>5</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F47">
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="6">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48">
+      <c r="E49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="6">
         <v>5</v>
       </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
+      <c r="G49" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">

--- a/01_ProjectPlanning/ProductBacklog.xlsx
+++ b/01_ProjectPlanning/ProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>Description</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Witch Sequence</t>
   </si>
   <si>
-    <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost agianst Iphrit</t>
-  </si>
-  <si>
     <t>Create second part of first level (Past)</t>
   </si>
   <si>
@@ -330,7 +327,10 @@
     <t>Design new Enemies for second level</t>
   </si>
   <si>
-    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous games.</t>
+    <t>As a player I want to see a sequence why I have to fight against Iphrit. As a player I also want to see how I get sent back in time after I lost against Iphrit</t>
+  </si>
+  <si>
+    <t>As a Player I want to fight against new enemies in the second level. That means 10 new enemies per level. I also want to see some familiar enemies which I already met in previous levels.</t>
   </si>
 </sst>
 </file>
@@ -346,12 +346,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,11 +386,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -406,9 +439,9 @@
     <tableColumn id="5" name="Epic"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="Priority"/>
-    <tableColumn id="6" name="Vertics" dataDxfId="0"/>
+    <tableColumn id="6" name="Vertics" dataDxfId="1"/>
     <tableColumn id="4" name="SP"/>
-    <tableColumn id="7" name="Finished"/>
+    <tableColumn id="7" name="Finished" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +721,7 @@
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,104 +743,104 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
+      <c r="G1" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5">
         <f>SUM(F2:F72)</f>
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>48</v>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>48</v>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>48</v>
+      <c r="G5" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,96 +862,102 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="6">
         <v>3</v>
       </c>
+      <c r="G8" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
-        <v>92</v>
+      <c r="G10" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
-        <v>48</v>
+      <c r="G11" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -934,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -948,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -961,69 +1001,71 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1037,217 +1079,218 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G18" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19">
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G21" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G25" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22">
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="6">
         <v>5</v>
       </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1255,430 +1298,430 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28">
+      <c r="E30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="6">
         <v>2</v>
       </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G32" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="6">
+        <v>8</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="6">
+        <v>8</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29">
+      <c r="E37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="6">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G38" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30">
+      <c r="E40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="6">
         <v>5</v>
       </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,76 +1729,76 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="6">
+        <v>5</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F47">
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="6">
         <v>5</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B49" s="6">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48">
+      <c r="E49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="6">
         <v>5</v>
       </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
+      <c r="G49" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
